--- a/TestDoc/test_case_Tarasiuk.xlsx
+++ b/TestDoc/test_case_Tarasiuk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slmmm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\CrashCourseAT2022\TestDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,9 +63,6 @@
     <t>True</t>
   </si>
   <si>
-    <t>Window with filtres do not open</t>
-  </si>
-  <si>
     <t>Verify the possibility to select Primary Menu from  Common Menu to Image Menu by OWNER</t>
   </si>
   <si>
@@ -142,6 +139,10 @@
   <si>
     <t>On Left Sidebar Image Menu become with filled star
 On Left Sidebar Common Menu become with not filled star</t>
+  </si>
+  <si>
+    <t>menu_name = Common, primary = NULL
+menu_name = Image Menu , primary = 1</t>
   </si>
 </sst>
 </file>
@@ -286,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -305,12 +306,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -322,6 +317,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,8 +547,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -557,8 +561,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>21</v>
+      <c r="B1" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -568,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -578,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -594,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -614,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -624,7 +628,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -639,11 +643,11 @@
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -661,11 +665,11 @@
       <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>23</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>13</v>
@@ -675,11 +679,11 @@
       <c r="A13" s="5">
         <v>2</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>31</v>
+      <c r="B13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>13</v>
@@ -689,11 +693,11 @@
       <c r="A14" s="5">
         <v>3</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>32</v>
+      <c r="B14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>13</v>
@@ -703,11 +707,11 @@
       <c r="A15" s="5">
         <v>4</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>33</v>
+      <c r="B15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>13</v>
@@ -717,11 +721,11 @@
       <c r="A16" s="5">
         <v>5</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>34</v>
+      <c r="B16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>13</v>
@@ -731,13 +735,13 @@
       <c r="A17" s="5">
         <v>6</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="19" t="s">
+      <c r="B17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -745,8 +749,8 @@
       <c r="A18" s="5">
         <v>7</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>29</v>
+      <c r="B18" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
@@ -757,11 +761,11 @@
       <c r="A19" s="5">
         <v>8</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>14</v>
+      <c r="B19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>13</v>
@@ -771,9 +775,9 @@
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
